--- a/biology/Zoologie/Ambystoma_dumerilii/Ambystoma_dumerilii.xlsx
+++ b/biology/Zoologie/Ambystoma_dumerilii/Ambystoma_dumerilii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ambystoma dumerilii est une espèce néoténique d'urodèles de la famille des Ambystomatidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ambystoma dumerilii est une espèce néoténique d'urodèles de la famille des Ambystomatidae.
 À cause de la destruction de son habitat naturel, de la pollution et de l'introduction de poissons prédateurs, la population a fortement régressé depuis la dernière décennie. Il a été placé sur la liste rouge des espèces en danger critique d'extinction, appendice II CITES par l'UICN.
 </t>
         </is>
@@ -512,9 +524,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du lac de Pátzcuaro dans le nord-ouest de l'État de Michoacán au Mexique[1]. Elle se rencontre à environ 1 920 m d'altitude.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du lac de Pátzcuaro dans le nord-ouest de l'État de Michoacán au Mexique. Elle se rencontre à environ 1 920 m d'altitude.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Dugès, 1870 : Una nueva especie de ajolote de la Laguna de Patzcuaro. La Naturaleza, México, vol. 1, p. 241-244 (texte intégral).</t>
         </is>
